--- a/images.xlsx
+++ b/images.xlsx
@@ -228,6 +228,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="7810500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="9753600"/>
+          <a:ext cx="609600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
